--- a/pearson_tables/tp_netherlands_cumul-2-8.xlsx
+++ b/pearson_tables/tp_netherlands_cumul-2-8.xlsx
@@ -457,13 +457,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.6593643407537465</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.6973754258393535</v>
+        <v>-0.7606589243910584</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.6769099971030781</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -473,13 +473,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.7453017901482989</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6918109297135258</v>
+        <v>0.6697434001057189</v>
       </c>
       <c r="D3" t="n">
-        <v>0.730293776486729</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -489,13 +489,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.7780325129658322</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7020953615686433</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.8663175463279198</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -505,13 +505,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.8459338150119126</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7785930175862674</v>
+        <v>-0.8365927402360417</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7466223475293078</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -521,13 +521,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.6763831764857479</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.7090801737437779</v>
+        <v>0.6460604346881301</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.6697715570174551</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -537,13 +537,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.6142964627094657</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6766004173416241</v>
+        <v>-0.6560390222749032</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.6272336986317568</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -553,13 +553,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.6312832530882072</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7952437407209949</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0.7447876522111984</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -569,13 +569,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.5594128814383519</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.7769932234879882</v>
+        <v>-0.7199950025535631</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.6490796887410155</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
